--- a/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2024/Thang12/03.XNBH/XNBH_DuPhongLĐ_141224.xlsx
+++ b/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2024/Thang12/03.XNBH/XNBH_DuPhongLĐ_141224.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BH VNET\VNET NEW\VNET\4.Workspace\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2024\Thang12\03.XNBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814E4D5F-40CD-4755-8598-41A92C2ED700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96841A11-3B2B-4244-99D9-BA926BAC3BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -132,10 +132,10 @@
     <t>Thiết bị oxi hóa mạch</t>
   </si>
   <si>
-    <t xml:space="preserve"> Hà Nội, ngày 14 tháng 12 Năm 2024</t>
-  </si>
-  <si>
     <t>Người đại diện: Dự phòng lắp đặt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hà Nội, ngày 17 tháng 12 Năm 2024</t>
   </si>
 </sst>
 </file>
@@ -524,12 +524,93 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -538,87 +619,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -986,7 +986,7 @@
   <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G14" sqref="G14:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1006,104 +1006,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55"/>
-      <c r="B1" s="56"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="42" t="s">
+      <c r="A1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45"/>
     </row>
     <row r="2" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="45" t="s">
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="3" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="45" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="48"/>
     </row>
     <row r="4" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="48" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="51"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="54"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="55"/>
     </row>
     <row r="6" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+      <c r="A6" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -1113,13 +1113,13 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -1129,15 +1129,15 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
     </row>
     <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
@@ -1213,49 +1213,49 @@
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
-      <c r="G14" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
+      <c r="G14" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
     </row>
     <row r="15" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67" t="s">
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
       <c r="G15" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="65" t="s">
+      <c r="H15" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="65"/>
+      <c r="I15" s="38"/>
     </row>
     <row r="16" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="68" t="s">
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
       <c r="G16" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="68" t="s">
+      <c r="H16" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="68"/>
+      <c r="I16" s="41"/>
     </row>
     <row r="17" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22"/>
@@ -1302,23 +1302,23 @@
       <c r="I20" s="26"/>
     </row>
     <row r="21" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="66" t="s">
+      <c r="A21" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66" t="s">
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
       <c r="G21" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="66" t="s">
+      <c r="H21" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="66"/>
+      <c r="I21" s="39"/>
       <c r="J21" s="7"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -1335,12 +1335,24 @@
       <c r="I22" s="26"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
     </row>
     <row r="63" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A1:C4"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="H21:I21"/>
@@ -1351,18 +1363,6 @@
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:I10"/>
   </mergeCells>
   <pageMargins left="0.5" right="1" top="1.5" bottom="1" header="0.43307086614173201" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
